--- a/pv_result_1_F.xlsx
+++ b/pv_result_1_F.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>CONTENT</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>STAT_COUNT</t>
+  </si>
+  <si>
+    <t>GAP_COUNT</t>
   </si>
   <si>
     <t>F</t>
@@ -416,13 +419,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,119 +444,137 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.01820995160640858</v>
+        <v>-0.01788077084446102</v>
       </c>
       <c r="D2">
-        <v>0.0554610182118435</v>
+        <v>0.05586601284210211</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.03957147516882172</v>
+        <v>-0.03775750382531227</v>
       </c>
       <c r="D3">
-        <v>0.1591288206640973</v>
+        <v>0.1564418177246251</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.03289351441167249</v>
+        <v>-0.03212834488304543</v>
       </c>
       <c r="D4">
-        <v>0.05937271732024174</v>
+        <v>0.05821062062433247</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.03237609803710173</v>
+        <v>-0.0316691516217982</v>
       </c>
       <c r="D5">
-        <v>0.05657763430826351</v>
+        <v>0.05707492317932184</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>0.0003418597771872364</v>
+        <v>0.004681828549480488</v>
       </c>
       <c r="D6">
-        <v>0.9807523058230394</v>
+        <v>0.7301948350644194</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>0</v>
       </c>
     </row>

--- a/pv_result_1_F.xlsx
+++ b/pv_result_1_F.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.01788077084446102</v>
+        <v>-0.01811503031752225</v>
       </c>
       <c r="D2">
-        <v>0.05586601284210211</v>
+        <v>0.05670148273691809</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.03775750382531227</v>
+        <v>-0.03958212607029398</v>
       </c>
       <c r="D3">
-        <v>0.1564418177246251</v>
+        <v>0.1589465047505939</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.03212834488304543</v>
+        <v>-0.0328796811048141</v>
       </c>
       <c r="D4">
-        <v>0.05821062062433247</v>
+        <v>0.0594366748301666</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.0316691516217982</v>
+        <v>-0.03234900906963405</v>
       </c>
       <c r="D5">
-        <v>0.05707492317932184</v>
+        <v>0.05674257290451642</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.004681828549480488</v>
+        <v>0.0003455210876364464</v>
       </c>
       <c r="D6">
-        <v>0.7301948350644194</v>
+        <v>0.9805429215926841</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/pv_result_1_F.xlsx
+++ b/pv_result_1_F.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.01811503031752225</v>
+        <v>-0.0179630441157943</v>
       </c>
       <c r="D2">
-        <v>0.05670148273691809</v>
+        <v>0.05618306203912649</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.03958212607029398</v>
+        <v>-0.0465975361853409</v>
       </c>
       <c r="D3">
-        <v>0.1589465047505939</v>
+        <v>0.07275656091629459</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.0328796811048141</v>
+        <v>-0.0324188083149567</v>
       </c>
       <c r="D4">
-        <v>0.0594366748301666</v>
+        <v>0.05769195441598869</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.03234900906963405</v>
+        <v>-0.03149141663070548</v>
       </c>
       <c r="D5">
-        <v>0.05674257290451642</v>
+        <v>0.05654697770479645</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.0003455210876364464</v>
+        <v>0.004000352086412126</v>
       </c>
       <c r="D6">
-        <v>0.9805429215926841</v>
+        <v>0.7697527261973232</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/pv_result_1_F.xlsx
+++ b/pv_result_1_F.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.0179630441157943</v>
+        <v>-0.01782291227758313</v>
       </c>
       <c r="D2">
-        <v>0.05618306203912649</v>
+        <v>0.06068416246039357</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.0465975361853409</v>
+        <v>-0.03961317511101652</v>
       </c>
       <c r="D3">
-        <v>0.07275656091629459</v>
+        <v>0.1584307927786837</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.0324188083149567</v>
+        <v>-0.0328192843337598</v>
       </c>
       <c r="D4">
-        <v>0.05769195441598869</v>
+        <v>0.05978859731555996</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.03149141663070548</v>
+        <v>-0.03232577204178036</v>
       </c>
       <c r="D5">
-        <v>0.05654697770479645</v>
+        <v>0.05680757788530614</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.004000352086412126</v>
+        <v>0.0003556663370397391</v>
       </c>
       <c r="D6">
-        <v>0.7697527261973232</v>
+        <v>0.9799626146082984</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/pv_result_1_F.xlsx
+++ b/pv_result_1_F.xlsx
@@ -459,7 +459,7 @@
         <v>-0.01782291227758313</v>
       </c>
       <c r="D2">
-        <v>0.06068416246039357</v>
+        <v>0.0606841624603936</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -485,7 +485,7 @@
         <v>-0.03961317511101652</v>
       </c>
       <c r="D3">
-        <v>0.1584307927786837</v>
+        <v>0.1584307927786838</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -511,7 +511,7 @@
         <v>-0.0328192843337598</v>
       </c>
       <c r="D4">
-        <v>0.05978859731555996</v>
+        <v>0.05978859731556005</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -537,7 +537,7 @@
         <v>-0.03232577204178036</v>
       </c>
       <c r="D5">
-        <v>0.05680757788530614</v>
+        <v>0.05680757788530629</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">

--- a/pv_result_1_F.xlsx
+++ b/pv_result_1_F.xlsx
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
